--- a/data/financial_statements/sofp/PPG.xlsx
+++ b/data/financial_statements/sofp/PPG.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2940 +593,2979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1154000000</v>
+      </c>
+      <c r="C2">
         <v>1089000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>992000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1033000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1072000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1304000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1305000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1928000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1922000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2095000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2297000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1936000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1273000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1490000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1016000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>839000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>963000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1160000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1083000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1404000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1491000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2328000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1617000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1389000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1863000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>975000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1669000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1030000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1455000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1414000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1182000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1170000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1183000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3038000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2913000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3039000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1745000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2249000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1781000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2380000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>3303000000</v>
+      </c>
+      <c r="C3">
         <v>3541000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3818000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3659000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3152000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3382000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3498000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3034000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2726000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2843000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2673000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2804000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2756000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3028000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3332000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3197000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2845000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3217000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>3438000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>3343000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2903000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3155000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>3191000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>3057000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2654000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>2962000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>3108000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>3106000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>2709000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>3062000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>3286000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2961000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>2815000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2968000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>3184000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>3016000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>2736000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>3122000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>3223000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>2824000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2272000000</v>
+      </c>
+      <c r="C4">
         <v>2411000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2481000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2439000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2171000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2249000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2226000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1914000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1735000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1672000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1706000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1859000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1710000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1860000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1945000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1965000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1783000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1962000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1956000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1963000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1730000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1805000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1766000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1727000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1514000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1676000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1803000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1863000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1659000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1841000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1861000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1881000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1825000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1905000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1964000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1929000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1824000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1878000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1862000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1698000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>444000000</v>
+      </c>
+      <c r="C5">
         <v>449000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>465000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>496000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>379000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>365000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>417000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>463000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>415000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>392000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>401000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>467000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>431000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>439000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>414000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>408000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>370000000</v>
-      </c>
-      <c r="R5">
-        <v>402000000</v>
       </c>
       <c r="S5">
         <v>402000000</v>
       </c>
       <c r="T5">
+        <v>402000000</v>
+      </c>
+      <c r="U5">
         <v>400000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>353000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>350000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>571000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>473000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>543000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>804000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>527000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>719000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>889000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>589000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>651000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>699000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>620000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>566000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>544000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>471000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>484000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>447000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>844000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>824000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>7173000000</v>
+      </c>
+      <c r="C6">
         <v>7490000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7756000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7627000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6774000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7300000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7446000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7339000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6798000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7002000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7077000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7066000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6170000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>6817000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>6707000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>6409000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5961000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>6741000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>6879000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>7110000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>6477000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7638000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>7145000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>6646000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>6574000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>6417000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7107000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>6718000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>6712000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>7292000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7374000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7084000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>6443000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8898000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>9035000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8888000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>7214000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>8120000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>7710000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>7726000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>3140000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3214000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3322000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3442000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3350000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3424000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3052000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3127000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2897000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2865000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2863000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2983000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2862000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2929000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2866000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2805000000</v>
-      </c>
-      <c r="R7">
-        <v>2738000000</v>
       </c>
       <c r="S7">
         <v>2738000000</v>
       </c>
       <c r="T7">
+        <v>2738000000</v>
+      </c>
+      <c r="U7">
         <v>2862000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2824000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2730000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2710000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2806000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2608000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2863000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2950000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>3038000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2822000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2919000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2917000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2965000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>3092000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2720000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2777000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2724000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2876000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2687000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2637000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>2461000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>253000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>250000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>267000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>274000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>272000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>269000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>429000000</v>
-      </c>
-      <c r="I8">
-        <v>267000000</v>
       </c>
       <c r="J8">
         <v>267000000</v>
       </c>
       <c r="K8">
+        <v>267000000</v>
+      </c>
+      <c r="L8">
         <v>251000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>245000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>258000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>254000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>251000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>261000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>251000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>266000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>258000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>270000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>268000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>261000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>256000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>175000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>179000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>328000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>322000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>370000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>367000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>453000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>459000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>449000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>443000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>449000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>381000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>380000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>393000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>404000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>402000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>418000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>8236000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8568000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>8822000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>9031000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9048000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>9257000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7454000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7453000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6349000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6223000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6161000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6601000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>6418000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>6393000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>6123000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6042000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>5943000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>5906000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>6232000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>5987000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>5980000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>5963000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>5800000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>5555000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>5774000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>5675000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>5913000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>5847000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>5867000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>5881000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>5818000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>6212000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>4172000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>4282000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>4295000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>4347000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>4394000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>4311000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>3727000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>182000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>211000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>237000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>197000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>311000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>338000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>334000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>379000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>257000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>188000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>183000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>220000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>194000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>199000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>242000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>229000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>306000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>290000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>351000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>305000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>421000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>321000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>139000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>186000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>516000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>540000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>648000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>711000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>374000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>404000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>450000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>875000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>252000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>230000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>270000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>491000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>629000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>752000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>740000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>734000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>742000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>696000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>685000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>680000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>685000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>699000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>740000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>762000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>694000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>777000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>745000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>744000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>727000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>724000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>723000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>719000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>677000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>585000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>582000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>588000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>669000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>592000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>654000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>628000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>617000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>669000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>561000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>602000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>470000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>596000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>595000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>560000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>542000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>404000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1006000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1044000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>13378000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>13816000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>14261000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>14577000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>14583000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>14907000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12800000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>12758000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11298000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>11093000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10998000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>11538000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>11247000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>11248000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>10962000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>10054000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9977000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>9915000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>10434000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>10061000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>9977000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>9832000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>9508000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>9197000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>10073000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>10141000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>10597000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>10364000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>10282000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>10222000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>10284000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>11092000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>8189000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>8265000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>8229000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>8649000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>8518000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>8356000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>7650000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>7173000000</v>
+      </c>
+      <c r="C13">
         <v>20868000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>21572000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>21888000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>21351000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>21883000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>22353000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>20139000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>19556000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>18300000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>18170000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>18064000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>17708000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>18064000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>17955000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>17371000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>16015000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>16718000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>16794000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>17544000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>16538000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>17615000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>16977000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>16154000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>15771000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>16490000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>17248000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>17315000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>17076000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>17574000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>17596000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>17368000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>17535000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>17087000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>17300000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>17117000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>15863000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>16638000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>16066000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>15376000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>4087000000</v>
+      </c>
+      <c r="C14">
         <v>4299000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4511000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4492000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4392000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4378000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4318000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3815000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3792000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3482000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3055000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3367000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3496000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3636000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3746000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3684000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3623000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3806000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3893000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3924000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3781000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3895000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3653000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>3573000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3460000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3567000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3577000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>3616000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3419000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>3611000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>3590000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>3329000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>3547000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>3687000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>3691000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>3712000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>3265000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>3503000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>3343000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2949000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>313000000</v>
+      </c>
+      <c r="C15">
         <v>314000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>325000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>319000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>9000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>704000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>770000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>881000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>578000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>675000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1688000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1456000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>513000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>639000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>654000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>653000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>651000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>15000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>22000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>19000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>12000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>616000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>619000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>604000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>629000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>652000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>686000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>38000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>281000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>302000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>293000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>621000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>481000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>394000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>425000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>19000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>34000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>27000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>24000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>48000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>138000000</v>
+      </c>
+      <c r="C16">
         <v>135000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>146000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>171000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>173000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>187000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>206000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>244000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>281000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>282000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>320000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>206000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>196000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>141000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>139000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>83000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>99000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>112000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>132000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>87000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>102000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>107000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>169000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>96000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>164000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>241000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>112000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>902000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>995000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>857000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>942000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>823000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>847000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>815000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>846000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>835000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>836000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>832000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>739000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>730000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>4721000000</v>
+      </c>
+      <c r="C17">
         <v>4926000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5165000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5172000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4766000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5463000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5488000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5120000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4831000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4613000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5234000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5195000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>4375000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>4578000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>4706000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4588000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>4373000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3933000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>4047000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>4030000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>3895000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>4618000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>4441000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>4273000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>4253000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>4460000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>4375000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>4556000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>4695000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>4770000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>4825000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>4773000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>4875000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>4896000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>4962000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>4566000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>4135000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>4362000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>4106000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>3727000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>6503000000</v>
+      </c>
+      <c r="C18">
         <v>6478000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>6766000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6834000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>6572000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6092000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6387000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5336000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5171000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>4828000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4613000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>4751000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>4539000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4885000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>4845000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>4626000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>4365000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>5023000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>5048000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>5199000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4134000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4089000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>3998000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>3817000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3787000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>3752000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>4426000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>4226000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>4026000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>4250000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>4222000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>4023000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>3533000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>2954000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2958000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>3373000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>3372000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>3368000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>3355000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>3353000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>1458000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1465000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1489000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1506000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1651000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1671000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1655000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1678000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1364000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1383000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1393000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1406000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1243000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1258000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1269000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1274000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1311000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1362000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1392000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1428000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1525000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1503000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1439000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1464000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1812000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1631000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1699000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1710000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1778000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1798000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1781000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2127000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1725000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1747000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1724000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1735000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2029000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2030000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1977000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>539000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>573000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>667000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>646000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>642000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>683000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>422000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>435000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>436000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>397000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>399000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>452000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>455000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>382000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>447000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>429000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>460000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>425000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>471000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>442000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>445000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>390000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>400000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>417000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>521000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>546000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>479000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>460000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>506000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>501000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>624000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>666000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>241000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>271000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>281000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>249000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>216000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>224000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>235000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>692000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>671000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>709000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>757000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>916000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>977000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>961000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>949000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>965000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>936000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>862000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>911000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>960000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1005000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>865000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>842000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>913000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>929000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>985000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>967000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>928000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>910000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>939000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>935000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>824000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>837000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>1107000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1116000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1074000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>994000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1009000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1069000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1066000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1041000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1084000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1174000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1182000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1050000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1043000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>6503000000</v>
+      </c>
+      <c r="C22">
         <v>9798000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>10116000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>10383000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10174000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>10010000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>10454000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>9050000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>8910000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>8263000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>7998000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>8032000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>7930000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>8131000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>8062000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>7773000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>6910000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>7707000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>7764000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>8047000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>6971000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>6987000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>6801000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>6595000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>6603000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>6909000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>7440000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>7511000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>7312000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>7608000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>7515000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>7437000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>7395000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>5986000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>6017000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>6462000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>6530000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>6795000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>6659000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>6608000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>11224000000</v>
+      </c>
+      <c r="C23">
         <v>14724000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>15281000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>15555000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>14940000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>15473000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>15942000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14170000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>13741000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>12876000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>13232000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>13227000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>12305000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>12709000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>12768000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>12361000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>11283000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>11640000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>11811000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>12077000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>10866000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>11605000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>11242000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>10868000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>10856000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>11369000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>11815000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>12067000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>12007000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>12378000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>12340000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>12210000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>12270000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>10882000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>10979000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>11028000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>10665000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>11157000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>10765000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>10335000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>1122000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1111000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1093000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1081000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1065000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1053000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1029000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1008000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>980000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>962000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>954000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>950000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>925000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>913000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>899000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>788000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>772000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>769000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>761000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>756000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>745000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>723000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>711000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>707000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>683000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>668000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>648000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>635000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>624000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>612000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1073000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1028000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1001000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>983000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>989000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>953000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>936000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>907000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>888000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>969000000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
         <v>969000000</v>
@@ -3502,7 +3655,7 @@
         <v>969000000</v>
       </c>
       <c r="AF25">
-        <v>484000000</v>
+        <v>969000000</v>
       </c>
       <c r="AG25">
         <v>484000000</v>
@@ -3528,1102 +3681,1117 @@
       <c r="AN25">
         <v>484000000</v>
       </c>
+      <c r="AO25">
+        <v>484000000</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>20736000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>20552000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>20251000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>20372000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>20226000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>20022000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>19719000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>19469000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>19325000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>19010000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>19029000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>18906000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>18735000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>18488000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>18330000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>18131000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>17987000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>17725000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>17464000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>17140000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>17106000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>16613000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>16214000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>15980000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>15744000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>16034000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>15770000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>15521000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>15302000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>14966000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>14728000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>14498000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>14506000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>14227000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>13934000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>12757000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>12589000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>12450000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>12196000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>13527000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>13528000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>13381000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>13386000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>13136000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>13138000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>13148000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>13158000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>13176000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>13184000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>13187000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>13191000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>13054000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>13061000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>13070000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>12958000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>12551000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>12304000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>11843000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>11251000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>10855000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>10616000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>10626000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>10472000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>9824000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>9576000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>9583000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>9440000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>9192000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>9044000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>8898000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>8714000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>8423000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>8281000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>8185000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>8002000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>7329000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>7160000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>7173000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>6144000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>6291000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>6333000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6411000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>6410000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6411000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5969000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5815000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5424000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4938000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>4837000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>5403000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>5355000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>5187000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5010000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>4732000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>5078000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>4983000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>5467000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>5672000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>6010000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>5735000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>5286000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>4915000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>5121000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>5433000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>5248000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>5069000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>5196000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>5256000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>5158000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>5265000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>6205000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>6321000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>6089000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>5198000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>5481000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>5301000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>5041000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>6144000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>6291000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>6333000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6411000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6410000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6411000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>5969000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5815000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5424000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>4938000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4837000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>5403000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>5355000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>5187000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>5010000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>4732000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>5078000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>4983000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>5467000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>5672000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>6010000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>5735000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>5286000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>4915000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>5121000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>5433000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>5248000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>5069000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>5196000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>5256000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>5158000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>5265000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>6205000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>6321000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>6089000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>5198000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>5481000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>5301000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>5041000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>11224000000</v>
+      </c>
+      <c r="C30">
         <v>20868000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>21572000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>21888000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>21351000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>21883000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>22353000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>20139000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>19556000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>18300000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>18170000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>18064000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>17708000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>18064000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>17955000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>17371000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>16015000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>16718000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>16794000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>17544000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>16538000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>17615000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>16977000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>16154000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>15771000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>16490000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>17248000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>17315000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>17076000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>17574000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>17596000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>17368000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>17535000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>17087000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>17300000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>17117000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>15863000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>16638000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>16066000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>15376000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>235027000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>234997000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>236194000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>235907000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>237401000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>237357000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>237091000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>236686000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>236204000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>235977000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>235923000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>235680000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>236463000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>236293000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>236060000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>235861000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>239885000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>242018000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>243474000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>251174000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>254476000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>256480000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>256197000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>257330000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>263995000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>266282000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>266063000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>266876000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>269269000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>270721000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>271852000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>271965000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>274470000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>275670000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>276520000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>277292000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>284046000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>285816000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>285292000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>-4051000000</v>
+      </c>
+      <c r="C32">
         <v>-2092000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-2277000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-2489000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-2620000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-2638000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-2846000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-1485000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-1638000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-925000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-1285000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-1324000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-1198000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-1063000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-1206000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-1113000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-1310000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-865000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-923000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-765000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-315000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>30000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-228000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-514000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-640000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-653000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-242000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-665000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-778000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-671000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-625000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-660000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-947000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2033000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>2039000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>1794000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>851000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1087000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>990000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>1314000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>5662000000</v>
+      </c>
+      <c r="C33">
         <v>5703000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>6099000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>6120000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5509000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>5492000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>5852000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>4289000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3827000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>3408000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>4004000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>4271000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>3779000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>4034000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>4483000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>4440000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>4053000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>3878000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>3987000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>3814000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>2655000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>2377000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>3000000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>3032000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>2553000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>3429000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>3443000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>3234000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>2852000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>3138000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>3333000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>3474000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>2831000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>310000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>470000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>353000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>1661000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>1146000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>1598000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>1021000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>6816000000</v>
+      </c>
+      <c r="C34">
         <v>6792000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>7091000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>7153000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>6581000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>6796000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>7157000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>6217000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5749000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>5503000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>6301000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>6207000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>5052000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>5524000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>5499000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>5279000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>5016000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>5038000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>5070000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>5218000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>4146000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>4705000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>4617000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>4421000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>4416000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>4404000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>5112000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>4264000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>4307000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>4552000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>4515000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>4644000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>4014000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>3348000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>3383000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>3392000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>3406000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>3395000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>3379000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>3401000000</v>
       </c>
     </row>
